--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.594001896669036</v>
+        <v>0.63768</v>
       </c>
       <c r="H2">
-        <v>0.594001896669036</v>
+        <v>1.91304</v>
       </c>
       <c r="I2">
-        <v>0.02873701971500637</v>
+        <v>0.02339172577126565</v>
       </c>
       <c r="J2">
-        <v>0.02873701971500637</v>
+        <v>0.02466334496732149</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="N2">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="O2">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="P2">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="Q2">
-        <v>56.86089062179884</v>
+        <v>61.61267731008</v>
       </c>
       <c r="R2">
-        <v>56.86089062179884</v>
+        <v>554.51409579072</v>
       </c>
       <c r="S2">
-        <v>0.006270339887179285</v>
+        <v>0.004949777817258645</v>
       </c>
       <c r="T2">
-        <v>0.006270339887179285</v>
+        <v>0.005386242295149319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.594001896669036</v>
+        <v>0.63768</v>
       </c>
       <c r="H3">
-        <v>0.594001896669036</v>
+        <v>1.91304</v>
       </c>
       <c r="I3">
-        <v>0.02873701971500637</v>
+        <v>0.02339172577126565</v>
       </c>
       <c r="J3">
-        <v>0.02873701971500637</v>
+        <v>0.02466334496732149</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="N3">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="O3">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="P3">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="Q3">
-        <v>66.1353651580709</v>
+        <v>78.02269213064</v>
       </c>
       <c r="R3">
-        <v>66.1353651580709</v>
+        <v>702.20422917576</v>
       </c>
       <c r="S3">
-        <v>0.007293083410565473</v>
+        <v>0.006268109220565554</v>
       </c>
       <c r="T3">
-        <v>0.007293083410565473</v>
+        <v>0.006820822315843645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.594001896669036</v>
+        <v>0.63768</v>
       </c>
       <c r="H4">
-        <v>0.594001896669036</v>
+        <v>1.91304</v>
       </c>
       <c r="I4">
-        <v>0.02873701971500637</v>
+        <v>0.02339172577126565</v>
       </c>
       <c r="J4">
-        <v>0.02873701971500637</v>
+        <v>0.02466334496732149</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="N4">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="O4">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="P4">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="Q4">
-        <v>49.32165387077856</v>
+        <v>53.40177550472001</v>
       </c>
       <c r="R4">
-        <v>49.32165387077856</v>
+        <v>480.61597954248</v>
       </c>
       <c r="S4">
-        <v>0.005438949868453706</v>
+        <v>0.004290138577572324</v>
       </c>
       <c r="T4">
-        <v>0.005438949868453706</v>
+        <v>0.004668436990848536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.594001896669036</v>
+        <v>0.63768</v>
       </c>
       <c r="H5">
-        <v>0.594001896669036</v>
+        <v>1.91304</v>
       </c>
       <c r="I5">
-        <v>0.02873701971500637</v>
+        <v>0.02339172577126565</v>
       </c>
       <c r="J5">
-        <v>0.02873701971500637</v>
+        <v>0.02466334496732149</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="N5">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="O5">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="P5">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="Q5">
-        <v>62.99733213199905</v>
+        <v>70.98731429424001</v>
       </c>
       <c r="R5">
-        <v>62.99733213199905</v>
+        <v>638.8858286481601</v>
       </c>
       <c r="S5">
-        <v>0.006947036533080921</v>
+        <v>0.005702908053030044</v>
       </c>
       <c r="T5">
-        <v>0.006947036533080921</v>
+        <v>0.006205782500676026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.594001896669036</v>
+        <v>0.63768</v>
       </c>
       <c r="H6">
-        <v>0.594001896669036</v>
+        <v>1.91304</v>
       </c>
       <c r="I6">
-        <v>0.02873701971500637</v>
+        <v>0.02339172577126565</v>
       </c>
       <c r="J6">
-        <v>0.02873701971500637</v>
+        <v>0.02466334496732149</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="N6">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="O6">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="P6">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="Q6">
-        <v>25.27869159446589</v>
+        <v>27.1455497748</v>
       </c>
       <c r="R6">
-        <v>25.27869159446589</v>
+        <v>162.8732986488</v>
       </c>
       <c r="S6">
-        <v>0.002787610015726988</v>
+        <v>0.002180792102839087</v>
       </c>
       <c r="T6">
-        <v>0.002787610015726988</v>
+        <v>0.001582060864803961</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.72489600805098</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H7">
-        <v>9.72489600805098</v>
+        <v>30.34568</v>
       </c>
       <c r="I7">
-        <v>0.4704775016323877</v>
+        <v>0.3710522649304671</v>
       </c>
       <c r="J7">
-        <v>0.4704775016323877</v>
+        <v>0.3912233795989359</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="N7">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="O7">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="P7">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="Q7">
-        <v>930.9166373424138</v>
+        <v>977.3337669860266</v>
       </c>
       <c r="R7">
-        <v>930.9166373424138</v>
+        <v>8796.003902874239</v>
       </c>
       <c r="S7">
-        <v>0.1026569168884799</v>
+        <v>0.07851606537951603</v>
       </c>
       <c r="T7">
-        <v>0.1026569168884799</v>
+        <v>0.08543950209669782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.72489600805098</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H8">
-        <v>9.72489600805098</v>
+        <v>30.34568</v>
       </c>
       <c r="I8">
-        <v>0.4704775016323877</v>
+        <v>0.3710522649304671</v>
       </c>
       <c r="J8">
-        <v>0.4704775016323877</v>
+        <v>0.3912233795989359</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="N8">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="O8">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="P8">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="Q8">
-        <v>1082.75672556492</v>
+        <v>1237.638339049324</v>
       </c>
       <c r="R8">
-        <v>1082.75672556492</v>
+        <v>11138.74505144392</v>
       </c>
       <c r="S8">
-        <v>0.1194010964333814</v>
+        <v>0.09942815446218151</v>
       </c>
       <c r="T8">
-        <v>0.1194010964333814</v>
+        <v>0.1081955899162852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.72489600805098</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H9">
-        <v>9.72489600805098</v>
+        <v>30.34568</v>
       </c>
       <c r="I9">
-        <v>0.4704775016323877</v>
+        <v>0.3710522649304671</v>
       </c>
       <c r="J9">
-        <v>0.4704775016323877</v>
+        <v>0.3912233795989359</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="N9">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="O9">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="P9">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="Q9">
-        <v>807.4855611204474</v>
+        <v>847.0879808566845</v>
       </c>
       <c r="R9">
-        <v>807.4855611204474</v>
+        <v>7623.791827710161</v>
       </c>
       <c r="S9">
-        <v>0.08904554372691796</v>
+        <v>0.06805250932059179</v>
       </c>
       <c r="T9">
-        <v>0.08904554372691796</v>
+        <v>0.07405328431420807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.72489600805098</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H10">
-        <v>9.72489600805098</v>
+        <v>30.34568</v>
       </c>
       <c r="I10">
-        <v>0.4704775016323877</v>
+        <v>0.3710522649304671</v>
       </c>
       <c r="J10">
-        <v>0.4704775016323877</v>
+        <v>0.3912233795989359</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="N10">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="O10">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="P10">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="Q10">
-        <v>1031.381393230954</v>
+        <v>1126.039352879413</v>
       </c>
       <c r="R10">
-        <v>1031.381393230954</v>
+        <v>10134.35417591472</v>
       </c>
       <c r="S10">
-        <v>0.1137356769855322</v>
+        <v>0.09046262642008152</v>
       </c>
       <c r="T10">
-        <v>0.1137356769855322</v>
+        <v>0.09843949416379923</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.72489600805098</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H11">
-        <v>9.72489600805098</v>
+        <v>30.34568</v>
       </c>
       <c r="I11">
-        <v>0.4704775016323877</v>
+        <v>0.3710522649304671</v>
       </c>
       <c r="J11">
-        <v>0.4704775016323877</v>
+        <v>0.3912233795989359</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="N11">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="O11">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="P11">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="Q11">
-        <v>413.8583535748294</v>
+        <v>430.5974610516</v>
       </c>
       <c r="R11">
-        <v>413.8583535748294</v>
+        <v>2583.5847663096</v>
       </c>
       <c r="S11">
-        <v>0.04563826759807627</v>
+        <v>0.03459290934809624</v>
       </c>
       <c r="T11">
-        <v>0.04563826759807627</v>
+        <v>0.02509550910794561</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.44760790291884</v>
+        <v>9.144978333333334</v>
       </c>
       <c r="H12">
-        <v>3.44760790291884</v>
+        <v>27.434935</v>
       </c>
       <c r="I12">
-        <v>0.1667906732812878</v>
+        <v>0.3354610860580532</v>
       </c>
       <c r="J12">
-        <v>0.1667906732812878</v>
+        <v>0.3536973957999008</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="N12">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="O12">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="P12">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="Q12">
-        <v>330.0226093115373</v>
+        <v>883.5883186854534</v>
       </c>
       <c r="R12">
-        <v>330.0226093115373</v>
+        <v>7952.29486816908</v>
       </c>
       <c r="S12">
-        <v>0.03639327327109763</v>
+        <v>0.0709848370556459</v>
       </c>
       <c r="T12">
-        <v>0.03639327327109763</v>
+        <v>0.07724418060347531</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.44760790291884</v>
+        <v>9.144978333333334</v>
       </c>
       <c r="H13">
-        <v>3.44760790291884</v>
+        <v>27.434935</v>
       </c>
       <c r="I13">
-        <v>0.1667906732812878</v>
+        <v>0.3354610860580532</v>
       </c>
       <c r="J13">
-        <v>0.1667906732812878</v>
+        <v>0.3536973957999008</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="N13">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="O13">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="P13">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="Q13">
-        <v>383.8519857596173</v>
+        <v>1118.924584498557</v>
       </c>
       <c r="R13">
-        <v>383.8519857596173</v>
+        <v>10070.32126048702</v>
       </c>
       <c r="S13">
-        <v>0.04232931265692791</v>
+        <v>0.08989104725416963</v>
       </c>
       <c r="T13">
-        <v>0.04232931265692791</v>
+        <v>0.09781751394728803</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.44760790291884</v>
+        <v>9.144978333333334</v>
       </c>
       <c r="H14">
-        <v>3.44760790291884</v>
+        <v>27.434935</v>
       </c>
       <c r="I14">
-        <v>0.1667906732812878</v>
+        <v>0.3354610860580532</v>
       </c>
       <c r="J14">
-        <v>0.1667906732812878</v>
+        <v>0.3536973957999008</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="N14">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="O14">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="P14">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="Q14">
-        <v>286.2646140079028</v>
+        <v>765.8356541716773</v>
       </c>
       <c r="R14">
-        <v>286.2646140079028</v>
+        <v>6892.520887545096</v>
       </c>
       <c r="S14">
-        <v>0.03156785635738164</v>
+        <v>0.06152494094043469</v>
       </c>
       <c r="T14">
-        <v>0.03156785635738164</v>
+        <v>0.06695012409334107</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.44760790291884</v>
+        <v>9.144978333333334</v>
       </c>
       <c r="H15">
-        <v>3.44760790291884</v>
+        <v>27.434935</v>
       </c>
       <c r="I15">
-        <v>0.1667906732812878</v>
+        <v>0.3354610860580532</v>
       </c>
       <c r="J15">
-        <v>0.1667906732812878</v>
+        <v>0.3536973957999008</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="N15">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="O15">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="P15">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="Q15">
-        <v>365.6387316926298</v>
+        <v>1018.030126650277</v>
       </c>
       <c r="R15">
-        <v>365.6387316926298</v>
+        <v>9162.271139852492</v>
       </c>
       <c r="S15">
-        <v>0.0403208444074387</v>
+        <v>0.08178548893167725</v>
       </c>
       <c r="T15">
-        <v>0.0403208444074387</v>
+        <v>0.08899721884026693</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.44760790291884</v>
+        <v>9.144978333333334</v>
       </c>
       <c r="H16">
-        <v>3.44760790291884</v>
+        <v>27.434935</v>
       </c>
       <c r="I16">
-        <v>0.1667906732812878</v>
+        <v>0.3354610860580532</v>
       </c>
       <c r="J16">
-        <v>0.1667906732812878</v>
+        <v>0.3536973957999008</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="N16">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="O16">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="P16">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="Q16">
-        <v>146.718415219282</v>
+        <v>389.294731741575</v>
       </c>
       <c r="R16">
-        <v>146.718415219282</v>
+        <v>2335.76839044945</v>
       </c>
       <c r="S16">
-        <v>0.01617938658844194</v>
+        <v>0.03127477187612579</v>
       </c>
       <c r="T16">
-        <v>0.01617938658844194</v>
+        <v>0.02268835831552945</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.73329843812044</v>
+        <v>3.146393</v>
       </c>
       <c r="H17">
-        <v>2.73329843812044</v>
+        <v>9.439178999999999</v>
       </c>
       <c r="I17">
-        <v>0.1322333338390461</v>
+        <v>0.1154177051571789</v>
       </c>
       <c r="J17">
-        <v>0.1322333338390461</v>
+        <v>0.1216920335619207</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="N17">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="O17">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="P17">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="Q17">
-        <v>261.6452647680603</v>
+        <v>304.004667858008</v>
       </c>
       <c r="R17">
-        <v>261.6452647680603</v>
+        <v>2736.042010722072</v>
       </c>
       <c r="S17">
-        <v>0.02885295537980534</v>
+        <v>0.02442282379214948</v>
       </c>
       <c r="T17">
-        <v>0.02885295537980534</v>
+        <v>0.02657639420047947</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.73329843812044</v>
+        <v>3.146393</v>
       </c>
       <c r="H18">
-        <v>2.73329843812044</v>
+        <v>9.439178999999999</v>
       </c>
       <c r="I18">
-        <v>0.1322333338390461</v>
+        <v>0.1154177051571789</v>
       </c>
       <c r="J18">
-        <v>0.1322333338390461</v>
+        <v>0.1216920335619207</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="N18">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="O18">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="P18">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="Q18">
-        <v>304.3217392145797</v>
+        <v>384.9737366092723</v>
       </c>
       <c r="R18">
-        <v>304.3217392145797</v>
+        <v>3464.763629483451</v>
       </c>
       <c r="S18">
-        <v>0.03355910748259371</v>
+        <v>0.03092763607894699</v>
       </c>
       <c r="T18">
-        <v>0.03355910748259371</v>
+        <v>0.03365479172753455</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.73329843812044</v>
+        <v>3.146393</v>
       </c>
       <c r="H19">
-        <v>2.73329843812044</v>
+        <v>9.439178999999999</v>
       </c>
       <c r="I19">
-        <v>0.1322333338390461</v>
+        <v>0.1154177051571789</v>
       </c>
       <c r="J19">
-        <v>0.1322333338390461</v>
+        <v>0.1216920335619207</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="N19">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="O19">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="P19">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="Q19">
-        <v>226.9534832236898</v>
+        <v>263.4910497986803</v>
       </c>
       <c r="R19">
-        <v>226.9534832236898</v>
+        <v>2371.419448188123</v>
       </c>
       <c r="S19">
-        <v>0.025027316013341</v>
+        <v>0.02116808115277806</v>
       </c>
       <c r="T19">
-        <v>0.025027316013341</v>
+        <v>0.02303465291203566</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.73329843812044</v>
+        <v>3.146393</v>
       </c>
       <c r="H20">
-        <v>2.73329843812044</v>
+        <v>9.439178999999999</v>
       </c>
       <c r="I20">
-        <v>0.1322333338390461</v>
+        <v>0.1154177051571789</v>
       </c>
       <c r="J20">
-        <v>0.1322333338390461</v>
+        <v>0.1216920335619207</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="N20">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="O20">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="P20">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="Q20">
-        <v>289.8820870568501</v>
+        <v>350.260301066674</v>
       </c>
       <c r="R20">
-        <v>289.8820870568501</v>
+        <v>3152.342709600066</v>
       </c>
       <c r="S20">
-        <v>0.03196677352701378</v>
+        <v>0.02813886271750307</v>
       </c>
       <c r="T20">
-        <v>0.03196677352701378</v>
+        <v>0.0306201082355563</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.73329843812044</v>
+        <v>3.146393</v>
       </c>
       <c r="H21">
-        <v>2.73329843812044</v>
+        <v>9.439178999999999</v>
       </c>
       <c r="I21">
-        <v>0.1322333338390461</v>
+        <v>0.1154177051571789</v>
       </c>
       <c r="J21">
-        <v>0.1322333338390461</v>
+        <v>0.1216920335619207</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="N21">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="O21">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="P21">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="Q21">
-        <v>116.3198444993848</v>
+        <v>133.939543019355</v>
       </c>
       <c r="R21">
-        <v>116.3198444993848</v>
+        <v>803.6372581161299</v>
       </c>
       <c r="S21">
-        <v>0.01282718143629229</v>
+        <v>0.01076030141580132</v>
       </c>
       <c r="T21">
-        <v>0.01282718143629229</v>
+        <v>0.007806086486314655</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.17046367206693</v>
+        <v>4.2166435</v>
       </c>
       <c r="H22">
-        <v>4.17046367206693</v>
+        <v>8.433287</v>
       </c>
       <c r="I22">
-        <v>0.2017614715322719</v>
+        <v>0.1546772180830351</v>
       </c>
       <c r="J22">
-        <v>0.2017614715322719</v>
+        <v>0.108723846071921</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="N22">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="O22">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="P22">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="Q22">
-        <v>399.2180496886697</v>
+        <v>407.412331102036</v>
       </c>
       <c r="R22">
-        <v>399.2180496886697</v>
+        <v>2444.473986612216</v>
       </c>
       <c r="S22">
-        <v>0.04402380675488609</v>
+        <v>0.0327302855030546</v>
       </c>
       <c r="T22">
-        <v>0.04402380675488609</v>
+        <v>0.02374426416934979</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.17046367206693</v>
+        <v>4.2166435</v>
       </c>
       <c r="H23">
-        <v>4.17046367206693</v>
+        <v>8.433287</v>
       </c>
       <c r="I23">
-        <v>0.2017614715322719</v>
+        <v>0.1546772180830351</v>
       </c>
       <c r="J23">
-        <v>0.2017614715322719</v>
+        <v>0.108723846071921</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="N23">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="O23">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="P23">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="Q23">
-        <v>464.3337662342404</v>
+        <v>515.9231552270171</v>
       </c>
       <c r="R23">
-        <v>464.3337662342404</v>
+        <v>3095.538931362103</v>
       </c>
       <c r="S23">
-        <v>0.05120444832192871</v>
+        <v>0.04144771986292155</v>
       </c>
       <c r="T23">
-        <v>0.05120444832192871</v>
+        <v>0.03006834784715118</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.17046367206693</v>
+        <v>4.2166435</v>
       </c>
       <c r="H24">
-        <v>4.17046367206693</v>
+        <v>8.433287</v>
       </c>
       <c r="I24">
-        <v>0.2017614715322719</v>
+        <v>0.1546772180830351</v>
       </c>
       <c r="J24">
-        <v>0.2017614715322719</v>
+        <v>0.108723846071921</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="N24">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="O24">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="P24">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="Q24">
-        <v>346.2853685616247</v>
+        <v>353.1179424953532</v>
       </c>
       <c r="R24">
-        <v>346.2853685616247</v>
+        <v>2118.707654972119</v>
       </c>
       <c r="S24">
-        <v>0.03818665052717465</v>
+        <v>0.02836843706438901</v>
       </c>
       <c r="T24">
-        <v>0.03818665052717465</v>
+        <v>0.020579950751287</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.17046367206693</v>
+        <v>4.2166435</v>
       </c>
       <c r="H25">
-        <v>4.17046367206693</v>
+        <v>8.433287</v>
       </c>
       <c r="I25">
-        <v>0.2017614715322719</v>
+        <v>0.1546772180830351</v>
       </c>
       <c r="J25">
-        <v>0.2017614715322719</v>
+        <v>0.108723846071921</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="N25">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="O25">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="P25">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="Q25">
-        <v>442.3017612686559</v>
+        <v>469.401890291783</v>
       </c>
       <c r="R25">
-        <v>442.3017612686559</v>
+        <v>2816.411341750698</v>
       </c>
       <c r="S25">
-        <v>0.04877486696962265</v>
+        <v>0.03771034088085998</v>
       </c>
       <c r="T25">
-        <v>0.04877486696962265</v>
+        <v>0.02735705729507936</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.17046367206693</v>
+        <v>4.2166435</v>
       </c>
       <c r="H26">
-        <v>4.17046367206693</v>
+        <v>8.433287</v>
       </c>
       <c r="I26">
-        <v>0.2017614715322719</v>
+        <v>0.1546772180830351</v>
       </c>
       <c r="J26">
-        <v>0.2017614715322719</v>
+        <v>0.108723846071921</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="N26">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="O26">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="P26">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="Q26">
-        <v>177.4806874578776</v>
+        <v>179.4992880627225</v>
       </c>
       <c r="R26">
-        <v>177.4806874578776</v>
+        <v>717.9971522508899</v>
       </c>
       <c r="S26">
-        <v>0.01957169895865981</v>
+        <v>0.01442043477180995</v>
       </c>
       <c r="T26">
-        <v>0.01957169895865981</v>
+        <v>0.006974226009053654</v>
       </c>
     </row>
   </sheetData>
